--- a/WSL mens championship tour 2021.xlsx
+++ b/WSL mens championship tour 2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucilleharrison/Desktop/CODE1161/1161 data analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucilleharrison/Desktop/CODE1161/Data-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CFE2CD-49E2-1D4B-8934-3BE8348F896F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4E7823-736C-3242-AB3A-48279206841C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{75571ABD-5C47-B646-AE5B-5F6DF38090A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="78">
   <si>
     <t>Points from each tour event</t>
   </si>
@@ -80,18 +80,12 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t> 1</t>
-  </si>
-  <si>
     <t>Filipe Toledo</t>
   </si>
   <si>
     <t>Italo Ferreira</t>
   </si>
   <si>
-    <t> 4</t>
-  </si>
-  <si>
     <t>Conner Coffin</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>South Africa</t>
   </si>
   <si>
-    <t> 2</t>
-  </si>
-  <si>
     <t>Kanoa Igarashi</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>Hawaii</t>
   </si>
   <si>
-    <t> 14</t>
-  </si>
-  <si>
     <t>Jack Robinson</t>
   </si>
   <si>
@@ -149,15 +137,9 @@
     <t>Italy</t>
   </si>
   <si>
-    <t> 10</t>
-  </si>
-  <si>
     <t>Deivid Silva</t>
   </si>
   <si>
-    <t> 3</t>
-  </si>
-  <si>
     <t>Ryan Callinan</t>
   </si>
   <si>
@@ -173,9 +155,6 @@
     <t>Jadson Andre</t>
   </si>
   <si>
-    <t> 5</t>
-  </si>
-  <si>
     <t>Jeremy Flores</t>
   </si>
   <si>
@@ -186,9 +165,6 @@
   </si>
   <si>
     <t>Julian Wilson(WDN)</t>
-  </si>
-  <si>
-    <t> 6</t>
   </si>
   <si>
     <t>Seth Moniz</t>
@@ -416,16 +392,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -743,13 +719,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A083982A-8855-5D4C-870B-A8CD074607D7}">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="23" x14ac:dyDescent="0.25">
@@ -797,13 +775,11 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
@@ -816,7 +792,7 @@
       <c r="G4" s="8">
         <v>10000</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="14">
         <v>3320</v>
       </c>
       <c r="I4" s="8">
@@ -825,7 +801,7 @@
       <c r="J4" s="8">
         <v>7800</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="14">
         <v>4745</v>
       </c>
       <c r="L4" s="8">
@@ -833,33 +809,31 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="E6" s="14">
         <v>1330</v>
       </c>
       <c r="F6" s="8">
@@ -871,7 +845,7 @@
       <c r="H6" s="8">
         <v>10000</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="14">
         <v>1330</v>
       </c>
       <c r="J6" s="8">
@@ -885,31 +859,29 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="8">
         <v>6085</v>
@@ -917,7 +889,7 @@
       <c r="F8" s="8">
         <v>10000</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="14">
         <v>3320</v>
       </c>
       <c r="H8" s="8">
@@ -926,7 +898,7 @@
       <c r="I8" s="8">
         <v>6085</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="14">
         <v>3320</v>
       </c>
       <c r="K8" s="8">
@@ -937,33 +909,31 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="12">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7">
         <v>265</v>
       </c>
       <c r="F10" s="8">
@@ -972,7 +942,7 @@
       <c r="G10" s="8">
         <v>7800</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="14">
         <v>1330</v>
       </c>
       <c r="I10" s="8">
@@ -989,33 +959,31 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="9">
         <v>5</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="9">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14">
         <v>1330</v>
       </c>
       <c r="F12" s="8">
@@ -1024,7 +992,7 @@
       <c r="G12" s="8">
         <v>4745</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="14">
         <v>1330</v>
       </c>
       <c r="I12" s="8">
@@ -1041,33 +1009,31 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="9">
         <v>6</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="9">
+        <v>20</v>
+      </c>
+      <c r="E14" s="14">
         <v>1330</v>
       </c>
       <c r="F14" s="8">
@@ -1079,7 +1045,7 @@
       <c r="H14" s="8">
         <v>6085</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="14">
         <v>1330</v>
       </c>
       <c r="J14" s="8">
@@ -1093,31 +1059,29 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="9">
         <v>7</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="8">
         <v>4745</v>
@@ -1134,10 +1098,10 @@
       <c r="I16" s="8">
         <v>3320</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="11">
         <v>265</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="11">
         <v>265</v>
       </c>
       <c r="L16" s="8">
@@ -1145,31 +1109,29 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="9">
         <v>8</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="7"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E18" s="8">
         <v>4745</v>
@@ -1183,13 +1145,13 @@
       <c r="H18" s="8">
         <v>3320</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="14">
         <v>1330</v>
       </c>
       <c r="J18" s="8">
         <v>6085</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="14">
         <v>1330</v>
       </c>
       <c r="L18" s="8">
@@ -1197,33 +1159,31 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="9">
         <v>9</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="9">
+        <v>25</v>
+      </c>
+      <c r="E20" s="14">
         <v>1330</v>
       </c>
       <c r="F20" s="8">
@@ -1232,7 +1192,7 @@
       <c r="G20" s="8">
         <v>4745</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="14">
         <v>1330</v>
       </c>
       <c r="I20" s="8">
@@ -1249,33 +1209,31 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="9">
         <v>10</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="9">
+        <v>26</v>
+      </c>
+      <c r="E22" s="14">
         <v>1330</v>
       </c>
       <c r="F22" s="8">
@@ -1287,7 +1245,7 @@
       <c r="H22" s="8">
         <v>3320</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="14">
         <v>1330</v>
       </c>
       <c r="J22" s="8">
@@ -1301,31 +1259,29 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="E23" s="14"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>11</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="7"/>
+      <c r="A24" s="9">
+        <v>11</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E24" s="8">
         <v>10000</v>
@@ -1336,16 +1292,16 @@
       <c r="G24" s="8">
         <v>3320</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="15">
         <v>4745</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="11">
         <v>265</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="12">
         <v>265</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="11">
         <v>265</v>
       </c>
       <c r="L24" s="8">
@@ -1353,31 +1309,29 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="13"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="9">
         <v>12</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="7"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E26" s="8">
         <v>3320</v>
@@ -1391,10 +1345,10 @@
       <c r="H26" s="8">
         <v>1330</v>
       </c>
-      <c r="I26" s="9">
-        <v>1330</v>
-      </c>
-      <c r="J26" s="12">
+      <c r="I26" s="14">
+        <v>1330</v>
+      </c>
+      <c r="J26" s="7">
         <v>265</v>
       </c>
       <c r="K26" s="8">
@@ -1405,39 +1359,37 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="12"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="9">
         <v>13</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="7"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E28" s="8">
         <v>4745</v>
       </c>
-      <c r="F28" s="9">
-        <v>1330</v>
-      </c>
-      <c r="G28" s="12">
+      <c r="F28" s="14">
+        <v>1330</v>
+      </c>
+      <c r="G28" s="7">
         <v>265</v>
       </c>
       <c r="H28" s="8">
@@ -1457,15 +1409,15 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="12"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1473,17 +1425,15 @@
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="9">
         <v>14</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="7"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="9">
+        <v>33</v>
+      </c>
+      <c r="E30" s="14">
         <v>1330</v>
       </c>
       <c r="F30" s="8">
@@ -1495,7 +1445,7 @@
       <c r="H30" s="8">
         <v>1330</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="14">
         <v>1330</v>
       </c>
       <c r="J30" s="8">
@@ -1509,31 +1459,29 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="14"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="9">
         <v>15</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="7"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E32" s="8">
         <v>3320</v>
@@ -1547,13 +1495,13 @@
       <c r="H32" s="8">
         <v>4745</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="14">
         <v>1330</v>
       </c>
       <c r="J32" s="8">
         <v>1330</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="14">
         <v>1330</v>
       </c>
       <c r="L32" s="8">
@@ -1561,33 +1509,31 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="9"/>
+      <c r="K33" s="14"/>
       <c r="L33" s="8"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="9">
         <v>15</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="7"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="12">
+        <v>35</v>
+      </c>
+      <c r="E34" s="7">
         <v>265</v>
       </c>
       <c r="F34" s="8">
@@ -1596,7 +1542,7 @@
       <c r="G34" s="8">
         <v>1330</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="14">
         <v>1330</v>
       </c>
       <c r="I34" s="8">
@@ -1613,33 +1559,31 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="9">
         <v>15</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="7"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="9">
+        <v>36</v>
+      </c>
+      <c r="E36" s="14">
         <v>1330</v>
       </c>
       <c r="F36" s="8">
@@ -1651,7 +1595,7 @@
       <c r="H36" s="8">
         <v>1330</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="14">
         <v>1330</v>
       </c>
       <c r="J36" s="8">
@@ -1665,45 +1609,43 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="E37" s="14"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="9"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="9">
         <v>18</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="7"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E38" s="8">
         <v>6085</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="12">
         <v>265</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="12">
         <v>265</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="11">
         <v>265</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="11">
         <v>265</v>
       </c>
       <c r="J38" s="8">
@@ -1717,36 +1659,34 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="7"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="9">
         <v>19</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="7"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E40" s="8">
         <v>3320</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="7">
         <v>265</v>
       </c>
       <c r="G40" s="8">
@@ -1755,7 +1695,7 @@
       <c r="H40" s="8">
         <v>3320</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="7">
         <v>265</v>
       </c>
       <c r="J40" s="8">
@@ -1769,31 +1709,29 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="7"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="12"/>
+      <c r="I41" s="7"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="9">
         <v>20</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="7"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E42" s="8">
         <v>4745</v>
@@ -1807,11 +1745,11 @@
       <c r="H42" s="8">
         <v>3320</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="7">
         <v>265</v>
       </c>
-      <c r="J42" s="13" t="s">
-        <v>48</v>
+      <c r="J42" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="K42" s="8">
         <v>3320</v>
@@ -1821,31 +1759,29 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="11"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="9">
         <v>20</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="7"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E44" s="8">
         <v>1330</v>
@@ -1862,10 +1798,10 @@
       <c r="I44" s="8">
         <v>4745</v>
       </c>
-      <c r="J44" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K44" s="12" t="s">
+      <c r="J44" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="8">
@@ -1873,33 +1809,31 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="7"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="12"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="7"/>
       <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="9">
         <v>20</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="7"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="9">
+        <v>43</v>
+      </c>
+      <c r="E46" s="14">
         <v>1330</v>
       </c>
       <c r="F46" s="8">
@@ -1917,7 +1851,7 @@
       <c r="J46" s="8">
         <v>3320</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K46" s="14">
         <v>1330</v>
       </c>
       <c r="L46" s="8">
@@ -1925,31 +1859,29 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="7"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="E47" s="14"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="9"/>
+      <c r="K47" s="14"/>
       <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="9">
         <v>20</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="7"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E48" s="8">
         <v>3320</v>
@@ -1960,7 +1892,7 @@
       <c r="G48" s="8">
         <v>1330</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="14">
         <v>1330</v>
       </c>
       <c r="I48" s="8">
@@ -1969,7 +1901,7 @@
       <c r="J48" s="8">
         <v>3320</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="14">
         <v>1330</v>
       </c>
       <c r="L48" s="8">
@@ -1977,39 +1909,37 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="7"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="14"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="9"/>
+      <c r="K49" s="14"/>
       <c r="L49" s="8"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="9">
         <v>24</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="7"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E50" s="8">
         <v>3320</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="7">
         <v>265</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="7">
         <v>265</v>
       </c>
       <c r="H50" s="8">
@@ -2029,15 +1959,15 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="7"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -2045,18 +1975,16 @@
       <c r="L51" s="8"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="9">
         <v>25</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="7"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="F52" s="8">
         <v>3320</v>
@@ -2064,7 +1992,7 @@
       <c r="G52" s="8">
         <v>1330</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="14">
         <v>1330</v>
       </c>
       <c r="I52" s="8">
@@ -2081,31 +2009,29 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="7"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="E53" s="11"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="14"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="9">
         <v>25</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="7"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E54" s="8">
         <v>3320</v>
@@ -2119,13 +2045,13 @@
       <c r="H54" s="8">
         <v>3320</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="14">
         <v>1330</v>
       </c>
       <c r="J54" s="8">
         <v>1330</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="14">
         <v>1330</v>
       </c>
       <c r="L54" s="8">
@@ -2133,9 +2059,9 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="7"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="6"/>
       <c r="D55" s="5" t="s">
         <v>13</v>
       </c>
@@ -2143,21 +2069,19 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="9"/>
+      <c r="I55" s="14"/>
       <c r="J55" s="8"/>
-      <c r="K55" s="9"/>
+      <c r="K55" s="14"/>
       <c r="L55" s="8"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="9">
         <v>27</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="7"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E56" s="8">
         <v>3320</v>
@@ -2171,13 +2095,13 @@
       <c r="H56" s="8">
         <v>3320</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="7">
         <v>265</v>
       </c>
       <c r="J56" s="8">
         <v>1330</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K56" s="14">
         <v>1330</v>
       </c>
       <c r="L56" s="8">
@@ -2185,9 +2109,9 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="7"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="5" t="s">
         <v>13</v>
       </c>
@@ -2195,21 +2119,19 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="12"/>
+      <c r="I57" s="7"/>
       <c r="J57" s="8"/>
-      <c r="K57" s="9"/>
+      <c r="K57" s="14"/>
       <c r="L57" s="8"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="9">
         <v>28</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="7"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E58" s="8">
         <v>1330</v>
@@ -2217,7 +2139,7 @@
       <c r="F58" s="8">
         <v>1330</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="14">
         <v>1330</v>
       </c>
       <c r="H58" s="8">
@@ -2226,7 +2148,7 @@
       <c r="I58" s="8">
         <v>3320</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="11">
         <v>265</v>
       </c>
       <c r="K58" s="8">
@@ -2237,31 +2159,29 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="7"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="9"/>
+      <c r="G59" s="14"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
-      <c r="J59" s="13"/>
+      <c r="J59" s="11"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="9">
         <v>28</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="7"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E60" s="8">
         <v>3320</v>
@@ -2272,7 +2192,7 @@
       <c r="G60" s="8">
         <v>1330</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="7">
         <v>265</v>
       </c>
       <c r="I60" s="8">
@@ -2281,41 +2201,39 @@
       <c r="J60" s="8">
         <v>1330</v>
       </c>
-      <c r="K60" s="13" t="s">
-        <v>48</v>
+      <c r="K60" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="L60" s="8">
         <v>8640</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="7"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="6"/>
       <c r="D61" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="12"/>
+      <c r="H61" s="7"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
-      <c r="K61" s="13"/>
+      <c r="K61" s="11"/>
       <c r="L61" s="8"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62" s="9">
         <v>28</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="7"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E62" s="9">
+        <v>51</v>
+      </c>
+      <c r="E62" s="14">
         <v>1330</v>
       </c>
       <c r="F62" s="8">
@@ -2327,7 +2245,7 @@
       <c r="H62" s="8">
         <v>1330</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="14">
         <v>1330</v>
       </c>
       <c r="J62" s="8">
@@ -2341,31 +2259,29 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="6"/>
       <c r="D63" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="E63" s="14"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="9"/>
+      <c r="I63" s="14"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="A64" s="9">
         <v>28</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="7"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="6"/>
       <c r="D64" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E64" s="8">
         <v>1330</v>
@@ -2373,7 +2289,7 @@
       <c r="F64" s="8">
         <v>1330</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="7">
         <v>265</v>
       </c>
       <c r="H64" s="8">
@@ -2385,7 +2301,7 @@
       <c r="J64" s="8">
         <v>1330</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K64" s="7">
         <v>265</v>
       </c>
       <c r="L64" s="8">
@@ -2393,85 +2309,81 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="7"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="12"/>
+      <c r="G65" s="7"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
-      <c r="K65" s="12"/>
+      <c r="K65" s="7"/>
       <c r="L65" s="8"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="A66" s="9">
         <v>32</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="7"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E66" s="8">
         <v>1330</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>62</v>
+      <c r="F66" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="L66" s="8">
         <v>7575</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="7"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E67" s="8"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="7"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="6"/>
       <c r="L67" s="8"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+      <c r="A68" s="9">
         <v>33</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="7"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="6"/>
       <c r="D68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="12">
+        <v>56</v>
+      </c>
+      <c r="E68" s="7">
         <v>265</v>
       </c>
       <c r="F68" s="8">
@@ -2489,7 +2401,7 @@
       <c r="J68" s="8">
         <v>1330</v>
       </c>
-      <c r="K68" s="12">
+      <c r="K68" s="7">
         <v>265</v>
       </c>
       <c r="L68" s="8">
@@ -2497,51 +2409,49 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="7"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="12"/>
+      <c r="E69" s="7"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
-      <c r="K69" s="12"/>
+      <c r="K69" s="7"/>
       <c r="L69" s="8"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+      <c r="A70" s="9">
         <v>34</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="7"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="6"/>
       <c r="D70" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K70" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L70" s="8">
@@ -2549,97 +2459,93 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="6"/>
       <c r="D71" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="7"/>
       <c r="L71" s="8"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+      <c r="A72" s="9">
         <v>35</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="7"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="6"/>
       <c r="D72" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="L72" s="8">
         <v>6085</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="6"/>
       <c r="D73" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="6"/>
       <c r="L73" s="8"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+      <c r="A74" s="9">
         <v>36</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="7"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="6"/>
       <c r="D74" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E74" s="13">
+        <v>60</v>
+      </c>
+      <c r="E74" s="11">
         <v>265</v>
       </c>
       <c r="F74" s="8">
         <v>1330</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="6">
         <v>265</v>
       </c>
       <c r="H74" s="8">
         <v>1330</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74" s="11">
         <v>265</v>
       </c>
       <c r="J74" s="8">
@@ -2653,48 +2559,46 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="7"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="6"/>
       <c r="D75" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="E75" s="11"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="7"/>
+      <c r="G75" s="6"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="13"/>
+      <c r="I75" s="11"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+      <c r="A76" s="9">
         <v>37</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="7"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="6"/>
       <c r="D76" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E76" s="8">
         <v>1330</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F76" s="12">
         <v>265</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="12">
         <v>265</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76" s="11">
         <v>265</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="11">
         <v>265</v>
       </c>
-      <c r="J76" s="15">
+      <c r="J76" s="12">
         <v>265</v>
       </c>
       <c r="K76" s="8">
@@ -2705,51 +2609,49 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="7"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="6"/>
       <c r="D77" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E77" s="8"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="15"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="12"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="A78" s="9">
         <v>38</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="7"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L78" s="8">
@@ -2757,103 +2659,99 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="7"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="6"/>
       <c r="D79" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
       <c r="L79" s="8"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
+      <c r="A80" s="9">
         <v>39</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="7"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="6"/>
       <c r="D80" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="E80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="L80" s="8">
         <v>3320</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="6"/>
       <c r="D81" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="6"/>
       <c r="L81" s="8"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+      <c r="A82" s="9">
         <v>40</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C82" s="7"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="6"/>
       <c r="D82" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J82" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L82" s="8">
@@ -2861,467 +2759,449 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="7"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="6"/>
       <c r="D83" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
       <c r="L83" s="8"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
+      <c r="A84" s="9">
         <v>41</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="7"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="6"/>
       <c r="D84" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" s="8">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="9"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="8"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="9">
+        <v>41</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L86" s="8">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" s="9"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="8"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="9">
+        <v>41</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L88" s="8">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="8"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="9">
+        <v>41</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L90" s="8">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="8"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="9">
+        <v>41</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L92" s="8">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" s="9"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="8"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="9">
+        <v>41</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" s="8">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="9"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="8"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="9">
+        <v>41</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L96" s="8">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="8"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="9">
+        <v>41</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J84" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L84" s="8">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="8"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
+      <c r="E98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L98" s="8">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="9"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="8"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="9">
         <v>41</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="3" t="s">
+      <c r="B100" s="10"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E86" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I86" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K86" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L86" s="8">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="8"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
-        <v>41</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L88" s="8">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="8"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
-        <v>41</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K90" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L90" s="8">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="8"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
-        <v>41</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L92" s="8">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A93" s="6"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="8"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="6">
-        <v>41</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L94" s="8">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
-        <v>41</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I96" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J96" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L96" s="8">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
-        <v>41</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K98" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L98" s="8">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="6"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
-        <v>41</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K100" s="12" t="s">
+      <c r="E100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K100" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L100" s="8">
@@ -3329,51 +3209,49 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="6"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="7"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="6"/>
       <c r="D101" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="12"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="7"/>
       <c r="L101" s="8"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
+      <c r="A102" s="9">
         <v>41</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102" s="7"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="6"/>
       <c r="D102" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I102" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J102" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L102" s="8">
@@ -3381,23 +3259,561 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="7"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="6"/>
       <c r="D103" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
       <c r="L103" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="550">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
     <mergeCell ref="G102:G103"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="I102:I103"/>
@@ -3409,545 +3825,7 @@
     <mergeCell ref="J100:J101"/>
     <mergeCell ref="K100:K101"/>
     <mergeCell ref="L100:L101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
     <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="L94:L95"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="L90:L91"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.worldsurfleague.com/athletes/tour/mct?regionId=1&amp;seasonNumber=1&amp;sort=rank&amp;sortOrder=desc&amp;year=2021" xr:uid="{BAC5B153-6039-FD4F-BD51-0C7E477A36AB}"/>
